--- a/experiment/DQN/DQN_nohoho.xlsx
+++ b/experiment/DQN/DQN_nohoho.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="nohoho" sheetId="2" r:id="rId1"/>
     <sheet name="skelton-t" sheetId="3" r:id="rId2"/>
     <sheet name="DQN_nohoho_chain" sheetId="4" r:id="rId3"/>
+    <sheet name="vs_nohoho" sheetId="5" r:id="rId4"/>
+    <sheet name="vs_skeT" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -18,6 +20,311 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="100">
+  <si>
+    <t>(0</t>
+  </si>
+  <si>
+    <t>1):</t>
+  </si>
+  <si>
+    <t>26sec</t>
+  </si>
+  <si>
+    <t>2):</t>
+  </si>
+  <si>
+    <t>15sec</t>
+  </si>
+  <si>
+    <t>3):</t>
+  </si>
+  <si>
+    <t>4):</t>
+  </si>
+  <si>
+    <t>30sec</t>
+  </si>
+  <si>
+    <t>5):</t>
+  </si>
+  <si>
+    <t>21sec</t>
+  </si>
+  <si>
+    <t>6):</t>
+  </si>
+  <si>
+    <t>14sec</t>
+  </si>
+  <si>
+    <t>7):</t>
+  </si>
+  <si>
+    <t>18sec</t>
+  </si>
+  <si>
+    <t>8):</t>
+  </si>
+  <si>
+    <t>20sec</t>
+  </si>
+  <si>
+    <t>9):</t>
+  </si>
+  <si>
+    <t>42sec</t>
+  </si>
+  <si>
+    <t>10):</t>
+  </si>
+  <si>
+    <t>39sec</t>
+  </si>
+  <si>
+    <t>11):</t>
+  </si>
+  <si>
+    <t>37sec</t>
+  </si>
+  <si>
+    <t>12):</t>
+  </si>
+  <si>
+    <t>19sec</t>
+  </si>
+  <si>
+    <t>13):</t>
+  </si>
+  <si>
+    <t>13sec</t>
+  </si>
+  <si>
+    <t>14):</t>
+  </si>
+  <si>
+    <t>10sec</t>
+  </si>
+  <si>
+    <t>15):</t>
+  </si>
+  <si>
+    <t>16):</t>
+  </si>
+  <si>
+    <t>17):</t>
+  </si>
+  <si>
+    <t>44sec</t>
+  </si>
+  <si>
+    <t>18):</t>
+  </si>
+  <si>
+    <t>22sec</t>
+  </si>
+  <si>
+    <t>19):</t>
+  </si>
+  <si>
+    <t>36sec</t>
+  </si>
+  <si>
+    <t>20):</t>
+  </si>
+  <si>
+    <t>12sec</t>
+  </si>
+  <si>
+    <t>21):</t>
+  </si>
+  <si>
+    <t>22):</t>
+  </si>
+  <si>
+    <t>23):</t>
+  </si>
+  <si>
+    <t>17sec</t>
+  </si>
+  <si>
+    <t>24):</t>
+  </si>
+  <si>
+    <t>40sec</t>
+  </si>
+  <si>
+    <t>25):</t>
+  </si>
+  <si>
+    <t>25sec</t>
+  </si>
+  <si>
+    <t>26):</t>
+  </si>
+  <si>
+    <t>31sec</t>
+  </si>
+  <si>
+    <t>27):</t>
+  </si>
+  <si>
+    <t>70sec</t>
+  </si>
+  <si>
+    <t>28):</t>
+  </si>
+  <si>
+    <t>29):</t>
+  </si>
+  <si>
+    <t>30):</t>
+  </si>
+  <si>
+    <t>31):</t>
+  </si>
+  <si>
+    <t>35sec</t>
+  </si>
+  <si>
+    <t>32):</t>
+  </si>
+  <si>
+    <t>33):</t>
+  </si>
+  <si>
+    <t>34):</t>
+  </si>
+  <si>
+    <t>35):</t>
+  </si>
+  <si>
+    <t>33sec</t>
+  </si>
+  <si>
+    <t>36):</t>
+  </si>
+  <si>
+    <t>37):</t>
+  </si>
+  <si>
+    <t>38):</t>
+  </si>
+  <si>
+    <t>39):</t>
+  </si>
+  <si>
+    <t>40):</t>
+  </si>
+  <si>
+    <t>23sec</t>
+  </si>
+  <si>
+    <t>41):</t>
+  </si>
+  <si>
+    <t>42):</t>
+  </si>
+  <si>
+    <t>43):</t>
+  </si>
+  <si>
+    <t>44):</t>
+  </si>
+  <si>
+    <t>45):</t>
+  </si>
+  <si>
+    <t>24sec</t>
+  </si>
+  <si>
+    <t>46):</t>
+  </si>
+  <si>
+    <t>47):</t>
+  </si>
+  <si>
+    <t>48):</t>
+  </si>
+  <si>
+    <t>(1</t>
+  </si>
+  <si>
+    <t>41sec</t>
+  </si>
+  <si>
+    <t>49):</t>
+  </si>
+  <si>
+    <t>45sec</t>
+  </si>
+  <si>
+    <t>71sec</t>
+  </si>
+  <si>
+    <t>53sec</t>
+  </si>
+  <si>
+    <t>67sec</t>
+  </si>
+  <si>
+    <t>43sec</t>
+  </si>
+  <si>
+    <t>(2</t>
+  </si>
+  <si>
+    <t>(3</t>
+  </si>
+  <si>
+    <t>62sec</t>
+  </si>
+  <si>
+    <t>55sec</t>
+  </si>
+  <si>
+    <t>52sec</t>
+  </si>
+  <si>
+    <t>34sec</t>
+  </si>
+  <si>
+    <t>56sec</t>
+  </si>
+  <si>
+    <t>68sec</t>
+  </si>
+  <si>
+    <t>61sec</t>
+  </si>
+  <si>
+    <t>16sec</t>
+  </si>
+  <si>
+    <t>54sec</t>
+  </si>
+  <si>
+    <t>29sec</t>
+  </si>
+  <si>
+    <t>38sec</t>
+  </si>
+  <si>
+    <t>69sec</t>
+  </si>
+  <si>
+    <t>28sec</t>
+  </si>
+  <si>
+    <t>(4</t>
+  </si>
+  <si>
+    <t>57sec</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,7 +637,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -340,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -736,4 +1043,1736 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D34" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>785</v>
+      </c>
+      <c r="D2">
+        <v>760</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>141</v>
+      </c>
+      <c r="D3">
+        <v>168</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>158</v>
+      </c>
+      <c r="D4">
+        <v>233</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>403</v>
+      </c>
+      <c r="D5">
+        <v>1113</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>320</v>
+      </c>
+      <c r="D6">
+        <v>1158</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>147</v>
+      </c>
+      <c r="D7">
+        <v>168</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>191</v>
+      </c>
+      <c r="D8">
+        <v>222</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>244</v>
+      </c>
+      <c r="D9">
+        <v>1168</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>900</v>
+      </c>
+      <c r="D10">
+        <v>3043</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>427</v>
+      </c>
+      <c r="D11">
+        <v>785</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>438</v>
+      </c>
+      <c r="D12">
+        <v>1744</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>355</v>
+      </c>
+      <c r="D13">
+        <v>231</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>142</v>
+      </c>
+      <c r="D14">
+        <v>154</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>125</v>
+      </c>
+      <c r="D15">
+        <v>106</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>211</v>
+      </c>
+      <c r="D16">
+        <v>207</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>194</v>
+      </c>
+      <c r="D17">
+        <v>538</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>634</v>
+      </c>
+      <c r="D18">
+        <v>6024</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>254</v>
+      </c>
+      <c r="D19">
+        <v>2156</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>682</v>
+      </c>
+      <c r="D20">
+        <v>2266</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>124</v>
+      </c>
+      <c r="D21">
+        <v>116</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22">
+        <v>549</v>
+      </c>
+      <c r="D22">
+        <v>824</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23">
+        <v>201</v>
+      </c>
+      <c r="D23">
+        <v>298</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>192</v>
+      </c>
+      <c r="D24">
+        <v>298</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25">
+        <v>1234</v>
+      </c>
+      <c r="D25">
+        <v>10156</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26">
+        <v>273</v>
+      </c>
+      <c r="D26">
+        <v>1653</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27">
+        <v>729</v>
+      </c>
+      <c r="D27">
+        <v>1100</v>
+      </c>
+      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28">
+        <v>1290</v>
+      </c>
+      <c r="D28">
+        <v>4318</v>
+      </c>
+      <c r="E28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>334</v>
+      </c>
+      <c r="D29">
+        <v>886</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30">
+        <v>330</v>
+      </c>
+      <c r="D30">
+        <v>898</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31">
+        <v>675</v>
+      </c>
+      <c r="D31">
+        <v>1204</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32">
+        <v>460</v>
+      </c>
+      <c r="D32">
+        <v>310</v>
+      </c>
+      <c r="E32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33">
+        <v>690</v>
+      </c>
+      <c r="D33">
+        <v>677</v>
+      </c>
+      <c r="E33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34">
+        <v>232</v>
+      </c>
+      <c r="D34">
+        <v>2723</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35">
+        <v>149</v>
+      </c>
+      <c r="D35">
+        <v>561</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36">
+        <v>915</v>
+      </c>
+      <c r="D36">
+        <v>3860</v>
+      </c>
+      <c r="E36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37">
+        <v>131</v>
+      </c>
+      <c r="D37">
+        <v>127</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38">
+        <v>160</v>
+      </c>
+      <c r="D38">
+        <v>111</v>
+      </c>
+      <c r="E38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39">
+        <v>129</v>
+      </c>
+      <c r="D39">
+        <v>295</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40">
+        <v>728</v>
+      </c>
+      <c r="D40">
+        <v>267</v>
+      </c>
+      <c r="E40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41">
+        <v>552</v>
+      </c>
+      <c r="D41">
+        <v>2293</v>
+      </c>
+      <c r="E41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42">
+        <v>200</v>
+      </c>
+      <c r="D42">
+        <v>166</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43">
+        <v>248</v>
+      </c>
+      <c r="D43">
+        <v>598</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44">
+        <v>1259</v>
+      </c>
+      <c r="D44">
+        <v>2042</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45">
+        <v>128</v>
+      </c>
+      <c r="D45">
+        <v>146</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46">
+        <v>471</v>
+      </c>
+      <c r="D46">
+        <v>5082</v>
+      </c>
+      <c r="E46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>155</v>
+      </c>
+      <c r="D47">
+        <v>450</v>
+      </c>
+      <c r="E47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>1191</v>
+      </c>
+      <c r="D48">
+        <v>681</v>
+      </c>
+      <c r="E48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>154</v>
+      </c>
+      <c r="D49">
+        <v>2813</v>
+      </c>
+      <c r="E49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50">
+        <v>2592</v>
+      </c>
+      <c r="D50">
+        <v>291</v>
+      </c>
+      <c r="E50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51">
+        <v>212</v>
+      </c>
+      <c r="D51">
+        <v>218</v>
+      </c>
+      <c r="E51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D34" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>254</v>
+      </c>
+      <c r="D1">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1125</v>
+      </c>
+      <c r="D2">
+        <v>226</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>461</v>
+      </c>
+      <c r="D3">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>827</v>
+      </c>
+      <c r="D4">
+        <v>137</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>1531</v>
+      </c>
+      <c r="D5">
+        <v>433</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1058</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>2028</v>
+      </c>
+      <c r="D7">
+        <v>98</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>1536</v>
+      </c>
+      <c r="D8">
+        <v>280</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>1102</v>
+      </c>
+      <c r="D9">
+        <v>280</v>
+      </c>
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>1087</v>
+      </c>
+      <c r="D10">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>1084</v>
+      </c>
+      <c r="D11">
+        <v>268</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>2483</v>
+      </c>
+      <c r="D12">
+        <v>84</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>278</v>
+      </c>
+      <c r="D13">
+        <v>177</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>3724</v>
+      </c>
+      <c r="D14">
+        <v>624</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>173</v>
+      </c>
+      <c r="D15">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>667</v>
+      </c>
+      <c r="D16">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>3687</v>
+      </c>
+      <c r="D17">
+        <v>375</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>330</v>
+      </c>
+      <c r="D18">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>216</v>
+      </c>
+      <c r="D19">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>1247</v>
+      </c>
+      <c r="D20">
+        <v>176</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>482</v>
+      </c>
+      <c r="D21">
+        <v>218</v>
+      </c>
+      <c r="E21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22">
+        <v>991</v>
+      </c>
+      <c r="D22">
+        <v>114</v>
+      </c>
+      <c r="E22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>1288</v>
+      </c>
+      <c r="D23">
+        <v>1258</v>
+      </c>
+      <c r="E23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24">
+        <v>337</v>
+      </c>
+      <c r="D24">
+        <v>266</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25">
+        <v>1516</v>
+      </c>
+      <c r="D25">
+        <v>219</v>
+      </c>
+      <c r="E25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>1269</v>
+      </c>
+      <c r="D26">
+        <v>275</v>
+      </c>
+      <c r="E26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27">
+        <v>821</v>
+      </c>
+      <c r="D27">
+        <v>112</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28">
+        <v>1107</v>
+      </c>
+      <c r="D28">
+        <v>3003</v>
+      </c>
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <v>771</v>
+      </c>
+      <c r="D29">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30">
+        <v>259</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <v>492</v>
+      </c>
+      <c r="D31">
+        <v>169</v>
+      </c>
+      <c r="E31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32">
+        <v>186</v>
+      </c>
+      <c r="D32">
+        <v>23</v>
+      </c>
+      <c r="E32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33">
+        <v>730</v>
+      </c>
+      <c r="D33">
+        <v>112</v>
+      </c>
+      <c r="E33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34">
+        <v>763</v>
+      </c>
+      <c r="D34">
+        <v>74</v>
+      </c>
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35">
+        <v>2489</v>
+      </c>
+      <c r="D35">
+        <v>632</v>
+      </c>
+      <c r="E35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36">
+        <v>926</v>
+      </c>
+      <c r="D36">
+        <v>137</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37">
+        <v>712</v>
+      </c>
+      <c r="D37">
+        <v>127</v>
+      </c>
+      <c r="E37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38">
+        <v>325</v>
+      </c>
+      <c r="D38">
+        <v>24</v>
+      </c>
+      <c r="E38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39">
+        <v>477</v>
+      </c>
+      <c r="D39">
+        <v>958</v>
+      </c>
+      <c r="E39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40">
+        <v>1014</v>
+      </c>
+      <c r="D40">
+        <v>253</v>
+      </c>
+      <c r="E40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41">
+        <v>855</v>
+      </c>
+      <c r="D41">
+        <v>455</v>
+      </c>
+      <c r="E41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42">
+        <v>148</v>
+      </c>
+      <c r="D42">
+        <v>22</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43">
+        <v>379</v>
+      </c>
+      <c r="D43">
+        <v>124</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44">
+        <v>540</v>
+      </c>
+      <c r="D44">
+        <v>72</v>
+      </c>
+      <c r="E44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45">
+        <v>819</v>
+      </c>
+      <c r="D45">
+        <v>116</v>
+      </c>
+      <c r="E45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46">
+        <v>2454</v>
+      </c>
+      <c r="D46">
+        <v>133</v>
+      </c>
+      <c r="E46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47">
+        <v>579</v>
+      </c>
+      <c r="D47">
+        <v>226</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48">
+        <v>141</v>
+      </c>
+      <c r="D48">
+        <v>19</v>
+      </c>
+      <c r="E48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49">
+        <v>323</v>
+      </c>
+      <c r="D49">
+        <v>128</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50">
+        <v>849</v>
+      </c>
+      <c r="D50">
+        <v>177</v>
+      </c>
+      <c r="E50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>